--- a/src/model/Matricula.xlsx
+++ b/src/model/Matricula.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
   <si>
     <t>Colas</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Aracelly</t>
+  </si>
+  <si>
+    <t>Sol</t>
+  </si>
+  <si>
+    <t>Dawa</t>
   </si>
 </sst>
 </file>
@@ -182,7 +188,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="42.15" customHeight="1" hidden="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -215,7 +221,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -226,7 +232,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
       <selection activeCell="E9" sqref="E9"/>
@@ -757,6 +763,50 @@
         <v>43640.725963819445</v>
       </c>
     </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>113</v>
+      </c>
+      <c r="C49" s="2">
+        <v>43640.853177048615</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>76876</v>
+      </c>
+      <c r="C50" s="2">
+        <v>43640.8583520949</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>76876</v>
+      </c>
+      <c r="C51" s="2">
+        <v>43640.93188497685</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52">
+        <v>76876</v>
+      </c>
+      <c r="C52" s="2">
+        <v>43640.94521976852</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" copies="1"/>
@@ -765,7 +815,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
       <selection activeCell="B3" sqref="B3"/>
@@ -814,7 +864,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -823,6 +873,9 @@
       </c>
       <c r="C3">
         <v>113</v>
+      </c>
+      <c r="D3">
+        <v>76876</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -929,6 +982,30 @@
       </c>
       <c r="D11">
         <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>76876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>76876</v>
       </c>
     </row>
   </sheetData>

--- a/src/model/Matricula.xlsx
+++ b/src/model/Matricula.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="75">
   <si>
     <t>Colas</t>
   </si>
@@ -82,6 +82,165 @@
   </si>
   <si>
     <t>Dawa</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Andresito</t>
+  </si>
+  <si>
+    <t>[1,5,1,19,2]</t>
+  </si>
+  <si>
+    <t>wafa</t>
+  </si>
+  <si>
+    <t>2019-06-25</t>
+  </si>
+  <si>
+    <t>smith</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 7:10:12 pm</t>
+  </si>
+  <si>
+    <t>Karol</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 7:42:35 pm</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 7:42:46 pm</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 7:42:47 pm</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 7:43:01 pm</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 7:46:31 pm</t>
+  </si>
+  <si>
+    <t>Luisito</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 7:52:10 pm</t>
+  </si>
+  <si>
+    <t>dawda</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 7:53:17 pm</t>
+  </si>
+  <si>
+    <t>Awfa</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:04:36 pm</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:04:50 pm</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:06:07 pm</t>
+  </si>
+  <si>
+    <t>rfga</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:08:40 pm</t>
+  </si>
+  <si>
+    <t>Lucho</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:09:20 pm</t>
+  </si>
+  <si>
+    <t>Jamara</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:10:11 pm</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:10:15 pm</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:10:18 pm</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:10:21 pm</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:10:23 pm</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:10:26 pm</t>
+  </si>
+  <si>
+    <t>chorro</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:11:06 pm</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:11:11 pm</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:11:14 pm</t>
+  </si>
+  <si>
+    <t>Cosquillas</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:12:43 pm</t>
+  </si>
+  <si>
+    <t>Cerveza</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:13:46 pm</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:13:56 pm</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:14:04 pm</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:14:07 pm</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:14:09 pm</t>
+  </si>
+  <si>
+    <t>luis</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:14:29 pm</t>
+  </si>
+  <si>
+    <t>Jesucristo</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:15:46 pm</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 8:15:54 pm</t>
+  </si>
+  <si>
+    <t>Danielito</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 11:12:07 pm</t>
+  </si>
+  <si>
+    <t>June 24th 2019, 11:12:09 pm</t>
   </si>
 </sst>
 </file>
@@ -166,7 +325,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="42.15" customHeight="1" hidden="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -188,7 +347,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="42.15" customHeight="1" hidden="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -199,7 +358,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" ht="42.15" customHeight="1" hidden="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -210,7 +369,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" ht="42.15" customHeight="1" hidden="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -221,7 +380,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -232,7 +391,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
       <selection activeCell="E9" sqref="E9"/>
@@ -807,6 +966,402 @@
         <v>43640.94521976852</v>
       </c>
     </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>76876</v>
+      </c>
+      <c r="C53">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54">
+        <v>76876</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55">
+        <v>76876</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57">
+        <v>76</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58">
+        <v>76</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <v>76</v>
+      </c>
+      <c r="C59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60">
+        <v>76876</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61">
+        <v>113</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62">
+        <v>76876</v>
+      </c>
+      <c r="C62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63">
+        <v>76876</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64">
+        <v>76876</v>
+      </c>
+      <c r="C64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65">
+        <v>111</v>
+      </c>
+      <c r="C65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67">
+        <v>76</v>
+      </c>
+      <c r="C67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68">
+        <v>76876</v>
+      </c>
+      <c r="C68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69">
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70">
+        <v>76876</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71">
+        <v>76</v>
+      </c>
+      <c r="C71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72">
+        <v>111</v>
+      </c>
+      <c r="C72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73">
+        <v>111</v>
+      </c>
+      <c r="C73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74">
+        <v>111</v>
+      </c>
+      <c r="C74" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75">
+        <v>114</v>
+      </c>
+      <c r="C75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76">
+        <v>113</v>
+      </c>
+      <c r="C76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77">
+        <v>76876</v>
+      </c>
+      <c r="C77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>59</v>
+      </c>
+      <c r="B78">
+        <v>111</v>
+      </c>
+      <c r="C78" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79">
+        <v>114</v>
+      </c>
+      <c r="C79" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80">
+        <v>76876</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81">
+        <v>76</v>
+      </c>
+      <c r="C81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82">
+        <v>111</v>
+      </c>
+      <c r="C82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>61</v>
+      </c>
+      <c r="B83">
+        <v>113</v>
+      </c>
+      <c r="C83" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84">
+        <v>76876</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85">
+        <v>113</v>
+      </c>
+      <c r="C85" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86">
+        <v>76</v>
+      </c>
+      <c r="C86" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87">
+        <v>111</v>
+      </c>
+      <c r="C87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88">
+        <v>76</v>
+      </c>
+      <c r="C88" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" copies="1"/>
@@ -815,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
       <selection activeCell="B3" sqref="B3"/>
@@ -1008,6 +1563,204 @@
         <v>76876</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>76876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>76876</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>76876</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>76</v>
+      </c>
+      <c r="C19">
+        <v>76</v>
+      </c>
+      <c r="D19">
+        <v>76</v>
+      </c>
+      <c r="E19">
+        <v>76876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>76876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>76876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>76876</v>
+      </c>
+      <c r="C23">
+        <v>111</v>
+      </c>
+      <c r="D23">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>76876</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>76</v>
+      </c>
+      <c r="C26">
+        <v>76876</v>
+      </c>
+      <c r="D26">
+        <v>76</v>
+      </c>
+      <c r="E26">
+        <v>111</v>
+      </c>
+      <c r="F26">
+        <v>111</v>
+      </c>
+      <c r="G26">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>114</v>
+      </c>
+      <c r="C27">
+        <v>113</v>
+      </c>
+      <c r="D27">
+        <v>76876</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29">
+        <v>114</v>
+      </c>
+      <c r="C29">
+        <v>76876</v>
+      </c>
+      <c r="D29">
+        <v>76</v>
+      </c>
+      <c r="E29">
+        <v>111</v>
+      </c>
+      <c r="F29">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30">
+        <v>76876</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31">
+        <v>113</v>
+      </c>
+      <c r="C31">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32">
+        <v>111</v>
+      </c>
+      <c r="C32">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" copies="1"/>

--- a/src/model/Matricula.xlsx
+++ b/src/model/Matricula.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="89">
   <si>
     <t>Colas</t>
   </si>
@@ -241,6 +241,48 @@
   </si>
   <si>
     <t>June 24th 2019, 11:12:09 pm</t>
+  </si>
+  <si>
+    <t>June 25th 2019, 12:02:20 am</t>
+  </si>
+  <si>
+    <t>Soraka</t>
+  </si>
+  <si>
+    <t>June 25th 2019, 12:23:57 am</t>
+  </si>
+  <si>
+    <t>karoline</t>
+  </si>
+  <si>
+    <t>June 25th 2019, 12:38:17 am</t>
+  </si>
+  <si>
+    <t>gawa</t>
+  </si>
+  <si>
+    <t>June 25th 2019, 9:49:28 am</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>June 25th 2019, 10:17:48 am</t>
+  </si>
+  <si>
+    <t>June 25th 2019, 10:17:49 am</t>
+  </si>
+  <si>
+    <t>June 25th 2019, 10:17:52 am</t>
+  </si>
+  <si>
+    <t>danieluchop</t>
+  </si>
+  <si>
+    <t>June 25th 2019, 10:18:08 am</t>
+  </si>
+  <si>
+    <t>June 25th 2019, 10:18:10 am</t>
   </si>
 </sst>
 </file>
@@ -325,7 +367,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="42.15" customHeight="1" hidden="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -358,7 +400,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="42.15" customHeight="1" hidden="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -369,7 +411,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" ht="42.15" customHeight="1" hidden="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -380,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -391,7 +433,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
       <selection activeCell="E9" sqref="E9"/>
@@ -1362,6 +1404,105 @@
         <v>74</v>
       </c>
     </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89">
+        <v>114</v>
+      </c>
+      <c r="C89" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>76</v>
+      </c>
+      <c r="B90">
+        <v>114</v>
+      </c>
+      <c r="C90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91">
+        <v>111</v>
+      </c>
+      <c r="C91" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>80</v>
+      </c>
+      <c r="B92">
+        <v>76876</v>
+      </c>
+      <c r="C92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93">
+        <v>76</v>
+      </c>
+      <c r="C93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94">
+        <v>76876</v>
+      </c>
+      <c r="C94" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>82</v>
+      </c>
+      <c r="B95">
+        <v>111</v>
+      </c>
+      <c r="C95" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96">
+        <v>76876</v>
+      </c>
+      <c r="C96" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97">
+        <v>114</v>
+      </c>
+      <c r="C97" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" copies="1"/>
@@ -1370,7 +1511,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
       <selection activeCell="B3" sqref="B3"/>
@@ -1385,7 +1526,7 @@
     <col min="5" max="1025" width="12.38" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.15" customHeight="1" hidden="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" ht="42.15" customHeight="1" hidden="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1400,6 +1541,9 @@
       </c>
       <c r="E1">
         <v>76876</v>
+      </c>
+      <c r="F1">
+        <v>114</v>
       </c>
     </row>
     <row r="2" ht="42.15" customHeight="1" hidden="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1759,6 +1903,55 @@
       </c>
       <c r="C32">
         <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35">
+        <v>76876</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36">
+        <v>76</v>
+      </c>
+      <c r="C36">
+        <v>76876</v>
+      </c>
+      <c r="D36">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37">
+        <v>76876</v>
+      </c>
+      <c r="C37">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
